--- a/Rawdata/Uppskattat antal ripor vår distance_sampling.xlsx
+++ b/Rawdata/Uppskattat antal ripor vår distance_sampling.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -368,6 +368,11 @@
           <t>uppskattat_antal_ripor</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>standard_error</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -376,7 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>78.80841721966706</v>
+        <v>78.15710943778942</v>
+      </c>
+      <c r="C2">
+        <v>11.88448578118932</v>
       </c>
     </row>
     <row r="3">
@@ -386,7 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>29.55315645737515</v>
+        <v>27.92424284047004</v>
+      </c>
+      <c r="C3">
+        <v>5.998082589560713</v>
       </c>
     </row>
     <row r="4">
@@ -396,7 +407,10 @@
         </is>
       </c>
       <c r="B4">
-        <v>9.851052152458383</v>
+        <v>9.851052335388042</v>
+      </c>
+      <c r="C4">
+        <v>3.294424791765418</v>
       </c>
     </row>
     <row r="5">
@@ -406,7 +420,10 @@
         </is>
       </c>
       <c r="B5">
-        <v>82.09210127048652</v>
+        <v>82.78195239821885</v>
+      </c>
+      <c r="C5">
+        <v>12.3916320879611</v>
       </c>
     </row>
     <row r="6">
@@ -416,7 +433,10 @@
         </is>
       </c>
       <c r="B6">
-        <v>45.97157671147246</v>
+        <v>44.48862345013954</v>
+      </c>
+      <c r="C6">
+        <v>8.057825718361977</v>
       </c>
     </row>
     <row r="7">
@@ -426,7 +446,10 @@
         </is>
       </c>
       <c r="B7">
-        <v>29.55315645737515</v>
+        <v>29.80150286335878</v>
+      </c>
+      <c r="C7">
+        <v>6.242865669599347</v>
       </c>
     </row>
     <row r="8">
@@ -436,7 +459,10 @@
         </is>
       </c>
       <c r="B8">
-        <v>13.13473620327784</v>
+        <v>13.02618490629824</v>
+      </c>
+      <c r="C8">
+        <v>3.844283452493729</v>
       </c>
     </row>
     <row r="9">
@@ -446,7 +472,10 @@
         </is>
       </c>
       <c r="B9">
-        <v>42.68789266065299</v>
+        <v>43.78245482394686</v>
+      </c>
+      <c r="C9">
+        <v>7.973622128637855</v>
       </c>
     </row>
     <row r="10">
@@ -456,7 +485,10 @@
         </is>
       </c>
       <c r="B10">
-        <v>78.80841721966706</v>
+        <v>78.15710943778942</v>
+      </c>
+      <c r="C10">
+        <v>11.88448578118932</v>
       </c>
     </row>
     <row r="11">
@@ -466,7 +498,10 @@
         </is>
       </c>
       <c r="B11">
-        <v>49.25526076229192</v>
+        <v>48.84819339861839</v>
+      </c>
+      <c r="C11">
+        <v>8.57265064267621</v>
       </c>
     </row>
   </sheetData>
